--- a/data/2/20230603-a1r-yc-session2-m_transcript.xlsx
+++ b/data/2/20230603-a1r-yc-session2-m_transcript.xlsx
@@ -1,438 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:03 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A4894-A9A1-5447-9D23-41F3E65935A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230603-a1r-yc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"17:48"</t>
-  </si>
-  <si>
-    <t>I'd be willing to say that probably, the partying in workings are probably up to the party themselves rather than the population. And whole it's kind of like the marketplace, you don't like it. Go to a different party if there is one</t>
-  </si>
-  <si>
-    <t>"18:06"</t>
-  </si>
-  <si>
-    <t>I think my first reaction is with our system of people who become lifetime politicians that, I don't want to give those people more of a say and distance that selection from citizens themselves.</t>
-  </si>
-  <si>
-    <t>"18:27"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree. I think they will just choose kind of the establishment candidate and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know, they already have enough power to promote, you know, their establishment candy. You know, you kind of know when our party really wants one of the candidates to be present promote them. I think we should just leave it up to the voters and, and that's a good enough system.</t>
-  </si>
-  <si>
-    <t>"20:07"</t>
-  </si>
-  <si>
-    <t>Well, number three, I think the analogy is democracy, is kind of like two tigers in one lamb voting on, what's for lunch. You know, the bottom line is, is ranked Choice voting and I lived in an area that did have rent. Choice, voting managed to chase away people that aren't going to be included in that, especially if you're in an area that skews to one side of the other. As far as changing the Electoral College, good luck with that. The founding fathers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Made it difficult to amend the Constitution on the outset and they did it for a reason. And I'm not at all sure, that that that's going to be a viable solution.</t>
-  </si>
-  <si>
-    <t>"20:53"</t>
-  </si>
-  <si>
-    <t>yeah, I disagree with trying to move the Electoral College, each each stay in the country, you know, is a almost a small country in and of itself and its</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's not like we have to give too much power to other states have power over the others, just because they have a higher population, you know, each state should have its own say which President should appeal to all the states.</t>
-  </si>
-  <si>
-    <t>"21:33"</t>
-  </si>
-  <si>
-    <t>I have to agree with you Brandon. I live in California, a big state. But if you think about smaller States or less populated states, it does kind of limit their impact. So I, as dated, in some ways, as the Electoral College, maybe I do think it's worked so far. And, yeah, there's a reason that it's a long drawn-out process to change the Constitution. That's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In working for us.</t>
-  </si>
-  <si>
-    <t>"22:04"</t>
-  </si>
-  <si>
-    <t>Yeah, and someone who lives in New York, which is also a big highly populated Blue State even though technically would benefit our state. If we had like a much bigger say in the election, it just really makes sense to me to have just a few of the most highly populated states dominating the election. So now the president will just have to, you know, appeal to</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The biggest States, California Texas, New York. And I just worry about that. And yeah, it doesn't seem right to me.</t>
-  </si>
-  <si>
-    <t>"22:44"</t>
-  </si>
-  <si>
-    <t>Yeah, it is a good point. Actually, the thought of being being run from California, New York, Illinois. And</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maybe Michigan, you know, kind of blocks out the Montana's and then Idaho's and in the Alabama's and so on. So,</t>
-  </si>
-  <si>
-    <t>"24:15"</t>
-  </si>
-  <si>
-    <t>I think my first question would be which of those 15 states, which is something I could easily look up. And if we're going to make a drastic change like that, I am not sure. A compact is a way to do it as opposed to tackling that via Constitutional Amendment.</t>
-  </si>
-  <si>
-    <t>"24:39"</t>
-  </si>
-  <si>
-    <t>Yeah, I just looked it up. There is California and New York with our states have already enacted this law. Yeah, I agree with the cons describing. This Stitch is the feature. It seems like it's bypassing the Constitution where basically you're ignoring all of the state's voters who voted one way, just to follow, along with popular vote. So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And this proposal seems like it's like a federal law to force states to do, which I also think it's, right? I mean if States want to do it, they will move it in themselves.</t>
-  </si>
-  <si>
-    <t>"25:23"</t>
-  </si>
-  <si>
-    <t>Yeah, that's it's kind of like the Electoral version of ranked voting and having been in California until I left the ranked. Voting gave me the choice of voting for Pete Stark or Eric swallow, well, which gave me no choice at all. And actually it disenfranchises, everyone else. You know, that's casting about contrary to what their winter might be. So I'm against that, I think it should be a portion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To / the /, the voting populace for the electors.</t>
-  </si>
-  <si>
-    <t>"27:25"</t>
-  </si>
-  <si>
-    <t>Well, I have a pretty significant legal background in frankly, you know, the whole concept behind lifetime tenure is to remove politics from from the federal courts. Unfortunately of late, the judges are picked on with political ideas, in mind. And frankly, I think they bake them in. I'm not at all. Sure, that that would change if you were to give them term limits or expanding the court.</t>
-  </si>
-  <si>
-    <t>Art, you know, by 5 or 10 people, it's going to do nothing. That's a political issue there. And people that don't like how the court rules like it bigger. So they will, and vice versa.</t>
-  </si>
-  <si>
-    <t>"28:07"</t>
-  </si>
-  <si>
-    <t>yeah, I do like this proposal because it removes the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perverse incentive of, you know, the president, you know, let's say of one party.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> There they get president for just one one term and then they get to select. That's a large number of judges.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And that kind of makes it makes you as a voter feel like you don't have much of a say in it. And also that your you have to like, think about when will a judge retire or when will judge, you know, pass away.</t>
-  </si>
-  <si>
-    <t>"28:52"</t>
-  </si>
-  <si>
-    <t>I'm going to say the only part of it that appealed to me, was the ethical issues in terms of having a standard that all of them adhere to. But as soon as I heard that, they would have to Big get to a point someone every two years and I think of how much time is spent on approving a judge and I think our people in Congress already kind of don't get enough done. So if every two years they had to spend time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Approving. Or fighting over an appointment, we get them to do even less.</t>
-  </si>
-  <si>
-    <t>"29:30"</t>
-  </si>
-  <si>
-    <t>Absolutely Supreme Court is not an electoral branch of the federal government or you know, there's the three the Supreme Court's sole job is to rule on the constitutionality or unconstitutionality of the law based on President star decisis you know their political leanings or their political orientation, shouldn't have a thing to do with it. You know unfortunately the politicians of kind of backdoor that</t>
-  </si>
-  <si>
-    <t>"31:24"</t>
-  </si>
-  <si>
-    <t>I think this would be nice but I would be skeptical of how how effective would be depending on how they implement it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know, schools.</t>
-  </si>
-  <si>
-    <t>And teachers have a lot on your plate already. So we want to teach students, you know, the regular subjects, some people see one at each some, you know, finance and taxes. And now want to catch up. Civics can be done, but I would say should be done when students are 18, or older or whatever voting ages, so that they can actually practice it as soon as they learn it rather than, you know, forget</t>
-  </si>
-  <si>
-    <t>"32:09"</t>
-  </si>
-  <si>
-    <t>I'm just going to say as someone who's spent three decades in education, throwing money at a problem, has very rarely led to the desired effect. Yes, Civics, education is absolutely important. If they would amend this proposal to say you have to take and complete this class successfully before you could vote. I might be all for it, but I don't see spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> More money.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Getting this to work.</t>
-  </si>
-  <si>
-    <t>"32:45"</t>
-  </si>
-  <si>
-    <t>I pretty much Echo attempts at. I've been involved in higher education for a number of years and looking at recent test scores, there's a major failure, I don't think more money and is going to do. It's going to take a different direction further as far as discussing issues in the community, I'm all for it but I just read an article just yesterday saying that the national debate Society was having problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Conducting debates at the high school and college level because of the nature of today's politics. So I don't think more money is going to do it. Education might</t>
-  </si>
-  <si>
-    <t>"33:27"</t>
-  </si>
-  <si>
-    <t>I agree throwing more money at it isn't going to help and we've been there done that it doesn't work. We do need to find a way to teach everybody about Civics. It's just finding that way. And then coming up with how to fund that.</t>
-  </si>
-  <si>
-    <t>Younger kids. I don't with the will koecher going right now. Things are kind of doing a 180. We need to find a way to teach civics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To teach people how it's doing, these platforms are great, being able to learn stuff like this. We need to learn how to pass that on to everybody. So we all know what.</t>
-  </si>
-  <si>
-    <t>"34:12"</t>
-  </si>
-  <si>
-    <t>I guess I can't really restate what everyone's already said. I've learned a lot in this session, but I agree that education is important. It's just a matter of how to get it out there. I know as a teenager or college student, I just didn't have the interest. So yeah throwing money at it. I don't know if that's really going to do much. I do think there needs to be a way for that. I just don't know what that is.</t>
-  </si>
-  <si>
-    <t>"34:38"</t>
-  </si>
-  <si>
-    <t>Yeah, speaking of what method would be most effective, I think TJ brought up an interesting video where we're learning a good amount about, you know, Civics and political system. Now, maybe this platform is one way, we could introduce younger people to these ideas.</t>
-  </si>
-  <si>
-    <t>"35:06"</t>
-  </si>
-  <si>
-    <t>I do agree that in order to at least get the younger Generations, more interested in involved, using a platform that matches, their interest would be important. So something like this might be a good option.</t>
-  </si>
-  <si>
-    <t>"39:59"</t>
-  </si>
-  <si>
-    <t>This is a this is a Eternal question I taught at the college level and I was amazed at the lack of Education or at least knowledge coming out of the primary and secondary education levels. So I would think probably starting it earlier on, I know when I was in school but 2,400 years ago, they did it that way and apparently that's changed.</t>
-  </si>
-  <si>
-    <t>"40:29"</t>
-  </si>
-  <si>
-    <t>I like the question the way it's written. I think it's really good.</t>
-  </si>
-  <si>
-    <t>"40:36"</t>
-  </si>
-  <si>
-    <t>Me too.</t>
-  </si>
-  <si>
-    <t>"40:39"</t>
-  </si>
-  <si>
-    <t>Agreed. I like the question as is</t>
-  </si>
-  <si>
-    <t>"41:14"</t>
-  </si>
-  <si>
-    <t>Well, most of the Supreme Court questions are the issues that arise over term limits or increasing the number of justices on the court. A rise out of people that don't like the decisions that are coming on at that particular time. I'm not at all. Sure, that term limits whether they be 18 years or two or three would change the political orientation of all that. I think that it's an ethical issue is the one we have to deal with and are</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> They deciding according to the law or to a political orientation.</t>
-  </si>
-  <si>
-    <t>"41:48"</t>
-  </si>
-  <si>
-    <t>I like the specificity of this question, John and I actually hadn't thought of it before so it's good Insight. I think I would like to know the answer to that from the panelists in the plenary session</t>
-  </si>
-  <si>
-    <t>"42:02"</t>
-  </si>
-  <si>
-    <t>I agree with John on this one. I'm not sure if we can really eliminate that political overhead of who's in there when they're in there with even having limits, but I do agree with, we need to have limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know, not maybe adding everybody every someone every two years but there does seem to need to be some kind of change in there as to term limits. I'm not sure what it is but I think we need more chance for that.</t>
-  </si>
-  <si>
-    <t>"42:40"</t>
-  </si>
-  <si>
-    <t>I'm just wondering if there are examples of other parallel Supreme Courts in other places where there are term limits or how they might circumvent, some of these problems because from my understanding, it may be a move made without precedent. So are there other democracies where that high court or highest court is subject to term limits or is this?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Something that someone's proposing based on some political issues, disagreements, that they may see with the current structure.</t>
-  </si>
-  <si>
-    <t>"43:18"</t>
-  </si>
-  <si>
-    <t>Tim, I don't know the answer to that, but I think that's a great question for our experts.</t>
-  </si>
-  <si>
-    <t>"43:25"</t>
-  </si>
-  <si>
-    <t>Well, the state of California. I think you from Tim is reaffirms all of their appellate justices. You know what I believe? It's a six year period. That's How Roseburg cruising also. And Joseph Grodin got turned out but it's virtually a rubber stamp, nobody knows or at least the average voter doesn't know, you know, with the background of the judges or how they've decided. So on the federal level it's really it's a political thing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thing, if you dislike how they decided one case you want to change it and if you don't, you're happy with it. So who knows? I think the lifetime tenure is supposed to remove that.</t>
-  </si>
-  <si>
-    <t>"44:42"</t>
-  </si>
-  <si>
-    <t>I love this one but this is a teacher shooting issue I have been contracted by a lot of things to teach various and Sundry different subjects so it does go on but I think in the primary and secondary schools that's pretty much locked up with a teacher. Should you need? Probably get a pretty good push back out of them.</t>
-  </si>
-  <si>
-    <t>"45:02"</t>
-  </si>
-  <si>
-    <t>I I love this idea, Brandon. I think you went to the heart of reaching the well, your representative of the younger generation from what I can tell it looking at us. And when I first read this question, I could just hear all my students like talking about the Civics education they got on Tick-Tock, but yeah, I think something like this would probably take a whole lot of funding, but I think it would appeal to that audience that it's crucial to get connected.</t>
-  </si>
-  <si>
-    <t>"45:32"</t>
-  </si>
-  <si>
-    <t>I totally agree you know even if we can do it locally from high school to high school at that age level, maybe stardom in elementary at a, you know, a softer approach and then get larger as we go I really like the platform were using right now to be able to hear other people's ideas and you know be able to give other things of thought will also learning what's going on. I think it would be great, maybe not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not necessarily a full class but you know an extracurricular really trying to get people in here to do things like this.</t>
-  </si>
-  <si>
-    <t>"46:13"</t>
-  </si>
-  <si>
-    <t>Well, I think it's vital to infuse this, this education to young people and up through the ranks. I think that all people like, I like this format. I think we're living in an age of information where all people could benefit from this type of format because it's just the way the world is going.</t>
-  </si>
-  <si>
-    <t>"46:38"</t>
-  </si>
-  <si>
-    <t>Does anyone have any suggestions for editing the question before we won?</t>
-  </si>
-  <si>
-    <t>"46:47"</t>
-  </si>
-  <si>
-    <t>I'm good like it the way it is.</t>
-  </si>
-  <si>
-    <t>"46:50"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm good with this. I don't think there's any problem at all with this. It's just a question of the mechanics of implementing it.</t>
-  </si>
-  <si>
-    <t>"47:18"</t>
-  </si>
-  <si>
-    <t>So my question, I just didn't know what to write and I've learned a lot from you guys this session, so I really appreciate it. I might take away was a little bit hopeless in writing that I don't know if anything can be done, so that's we can probably move on.</t>
-  </si>
-  <si>
-    <t>"47:54"</t>
-  </si>
-  <si>
-    <t>You know, the only thing I would add to this would be to Define what what these areas where I think there's five. But I'm good with the way this thing.</t>
-  </si>
-  <si>
-    <t>"48:04"</t>
-  </si>
-  <si>
-    <t>I think.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This is a good question, actually. It may be helpful to ask which of these proposals are actually have actually have a chance of being implemented in which, which do the experts think are likely to work or are easiest to implement. Our four are the most</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -508,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -614,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1696,938 +1293,1153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS76"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"17:48"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>I'd be willing to say that probably, the partying in workings are probably up to the party themselves rather than the population. And whole it's kind of like the marketplace, you don't like it. Go to a different party if there is one</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"18:06"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>I think my first reaction is with our system of people who become lifetime politicians that, I don't want to give those people more of a say and distance that selection from citizens themselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"18:27"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree. I think they will just choose kind of the establishment candidate and</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"18:27"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You know, they already have enough power to promote, you know, their establishment candy. You know, you kind of know when our party really wants one of the candidates to be present promote them. I think we should just leave it up to the voters and, and that's a good enough system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"20:07"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Well, number three, I think the analogy is democracy, is kind of like two tigers in one lamb voting on, what's for lunch. You know, the bottom line is, is ranked Choice voting and I lived in an area that did have rent. Choice, voting managed to chase away people that aren't going to be included in that, especially if you're in an area that skews to one side of the other. As far as changing the Electoral College, good luck with that. The founding fathers</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"20:07"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Made it difficult to amend the Constitution on the outset and they did it for a reason. And I'm not at all sure, that that that's going to be a viable solution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"20:53"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>yeah, I disagree with trying to move the Electoral College, each each stay in the country, you know, is a almost a small country in and of itself and its</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"20:53"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It's not like we have to give too much power to other states have power over the others, just because they have a higher population, you know, each state should have its own say which President should appeal to all the states.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"21:33"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>I have to agree with you Brandon. I live in California, a big state. But if you think about smaller States or less populated states, it does kind of limit their impact. So I, as dated, in some ways, as the Electoral College, maybe I do think it's worked so far. And, yeah, there's a reason that it's a long drawn-out process to change the Constitution. That's</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"21:33"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In working for us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"22:04"</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"22:04"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, and someone who lives in New York, which is also a big highly populated Blue State even though technically would benefit our state. If we had like a much bigger say in the election, it just really makes sense to me to have just a few of the most highly populated states dominating the election. So now the president will just have to, you know, appeal to</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"22:04"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The biggest States, California Texas, New York. And I just worry about that. And yeah, it doesn't seem right to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"22:44"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, it is a good point. Actually, the thought of being being run from California, New York, Illinois. And</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"22:44"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maybe Michigan, you know, kind of blocks out the Montana's and then Idaho's and in the Alabama's and so on. So,</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"24:15"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>I think my first question would be which of those 15 states, which is something I could easily look up. And if we're going to make a drastic change like that, I am not sure. A compact is a way to do it as opposed to tackling that via Constitutional Amendment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"24:39"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I just looked it up. There is California and New York with our states have already enacted this law. Yeah, I agree with the cons describing. This Stitch is the feature. It seems like it's bypassing the Constitution where basically you're ignoring all of the state's voters who voted one way, just to follow, along with popular vote. So</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"24:39"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yeah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"24:39"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And this proposal seems like it's like a federal law to force states to do, which I also think it's, right? I mean if States want to do it, they will move it in themselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"25:23"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, that's it's kind of like the Electoral version of ranked voting and having been in California until I left the ranked. Voting gave me the choice of voting for Pete Stark or Eric swallow, well, which gave me no choice at all. And actually it disenfranchises, everyone else. You know, that's casting about contrary to what their winter might be. So I'm against that, I think it should be a portion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"25:23"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To / the /, the voting populace for the electors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"27:25"</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>Well, I have a pretty significant legal background in frankly, you know, the whole concept behind lifetime tenure is to remove politics from from the federal courts. Unfortunately of late, the judges are picked on with political ideas, in mind. And frankly, I think they bake them in. I'm not at all. Sure, that that would change if you were to give them term limits or expanding the court.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"27:25"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Art, you know, by 5 or 10 people, it's going to do nothing. That's a political issue there. And people that don't like how the court rules like it bigger. So they will, and vice versa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"28:07"</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"28:07"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>yeah, I do like this proposal because it removes the</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"28:07"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Perverse incentive of, you know, the president, you know, let's say of one party.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"28:07"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> There they get president for just one one term and then they get to select. That's a large number of judges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"28:07"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And that kind of makes it makes you as a voter feel like you don't have much of a say in it. And also that your you have to like, think about when will a judge retire or when will judge, you know, pass away.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"28:52"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>I'm going to say the only part of it that appealed to me, was the ethical issues in terms of having a standard that all of them adhere to. But as soon as I heard that, they would have to Big get to a point someone every two years and I think of how much time is spent on approving a judge and I think our people in Congress already kind of don't get enough done. So if every two years they had to spend time</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"28:52"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Approving. Or fighting over an appointment, we get them to do even less.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"29:30"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>Absolutely Supreme Court is not an electoral branch of the federal government or you know, there's the three the Supreme Court's sole job is to rule on the constitutionality or unconstitutionality of the law based on President star decisis you know their political leanings or their political orientation, shouldn't have a thing to do with it. You know unfortunately the politicians of kind of backdoor that</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"31:24"</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"31:24"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>I think this would be nice but I would be skeptical of how how effective would be depending on how they implement it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"31:24"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You know, schools.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"31:24"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>And teachers have a lot on your plate already. So we want to teach students, you know, the regular subjects, some people see one at each some, you know, finance and taxes. And now want to catch up. Civics can be done, but I would say should be done when students are 18, or older or whatever voting ages, so that they can actually practice it as soon as they learn it rather than, you know, forget</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"32:09"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>I'm just going to say as someone who's spent three decades in education, throwing money at a problem, has very rarely led to the desired effect. Yes, Civics, education is absolutely important. If they would amend this proposal to say you have to take and complete this class successfully before you could vote. I might be all for it, but I don't see spending</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"32:09"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> More money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"32:09"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Getting this to work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"32:45"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>I pretty much Echo attempts at. I've been involved in higher education for a number of years and looking at recent test scores, there's a major failure, I don't think more money and is going to do. It's going to take a different direction further as far as discussing issues in the community, I'm all for it but I just read an article just yesterday saying that the national debate Society was having problems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"32:45"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Conducting debates at the high school and college level because of the nature of today's politics. So I don't think more money is going to do it. Education might</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"33:27"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>I agree throwing more money at it isn't going to help and we've been there done that it doesn't work. We do need to find a way to teach everybody about Civics. It's just finding that way. And then coming up with how to fund that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"33:27"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>Younger kids. I don't with the will koecher going right now. Things are kind of doing a 180. We need to find a way to teach civics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"33:27"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To teach people how it's doing, these platforms are great, being able to learn stuff like this. We need to learn how to pass that on to everybody. So we all know what.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>10005</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"34:12"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>I guess I can't really restate what everyone's already said. I've learned a lot in this session, but I agree that education is important. It's just a matter of how to get it out there. I know as a teenager or college student, I just didn't have the interest. So yeah throwing money at it. I don't know if that's really going to do much. I do think there needs to be a way for that. I just don't know what that is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"34:38"</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="n"/>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"34:38"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, speaking of what method would be most effective, I think TJ brought up an interesting video where we're learning a good amount about, you know, Civics and political system. Now, maybe this platform is one way, we could introduce younger people to these ideas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>10005</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"35:06"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>I do agree that in order to at least get the younger Generations, more interested in involved, using a platform that matches, their interest would be important. So something like this might be a good option.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"39:59"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>This is a this is a Eternal question I taught at the college level and I was amazed at the lack of Education or at least knowledge coming out of the primary and secondary education levels. So I would think probably starting it earlier on, I know when I was in school but 2,400 years ago, they did it that way and apparently that's changed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>10005</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"40:29"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>I like the question the way it's written. I think it's really good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"40:36"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>Me too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"40:39"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Agreed. I like the question as is</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"41:14"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>Well, most of the Supreme Court questions are the issues that arise over term limits or increasing the number of justices on the court. A rise out of people that don't like the decisions that are coming on at that particular time. I'm not at all. Sure, that term limits whether they be 18 years or two or three would change the political orientation of all that. I think that it's an ethical issue is the one we have to deal with and are</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"41:14"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> They deciding according to the law or to a political orientation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>10005</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"41:48"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>I like the specificity of this question, John and I actually hadn't thought of it before so it's good Insight. I think I would like to know the answer to that from the panelists in the plenary session</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"42:02"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>I agree with John on this one. I'm not sure if we can really eliminate that political overhead of who's in there when they're in there with even having limits, but I do agree with, we need to have limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"42:02"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You know, not maybe adding everybody every someone every two years but there does seem to need to be some kind of change in there as to term limits. I'm not sure what it is but I think we need more chance for that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"42:40"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>I'm just wondering if there are examples of other parallel Supreme Courts in other places where there are term limits or how they might circumvent, some of these problems because from my understanding, it may be a move made without precedent. So are there other democracies where that high court or highest court is subject to term limits or is this?</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"42:40"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Something that someone's proposing based on some political issues, disagreements, that they may see with the current structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"43:18"</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="n"/>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"43:18"</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>Tim, I don't know the answer to that, but I think that's a great question for our experts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"43:25"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>Well, the state of California. I think you from Tim is reaffirms all of their appellate justices. You know what I believe? It's a six year period. That's How Roseburg cruising also. And Joseph Grodin got turned out but it's virtually a rubber stamp, nobody knows or at least the average voter doesn't know, you know, with the background of the judges or how they've decided. So on the federal level it's really it's a political thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"43:25"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thing, if you dislike how they decided one case you want to change it and if you don't, you're happy with it. So who knows? I think the lifetime tenure is supposed to remove that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>"44:42"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>I love this one but this is a teacher shooting issue I have been contracted by a lot of things to teach various and Sundry different subjects so it does go on but I think in the primary and secondary schools that's pretty much locked up with a teacher. Should you need? Probably get a pretty good push back out of them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="4" t="n">
         <v>48277</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>"45:02"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>I I love this idea, Brandon. I think you went to the heart of reaching the well, your representative of the younger generation from what I can tell it looking at us. And when I first read this question, I could just hear all my students like talking about the Civics education they got on Tick-Tock, but yeah, I think something like this would probably take a whole lot of funding, but I think it would appeal to that audience that it's crucial to get connected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>"45:32"</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>I totally agree you know even if we can do it locally from high school to high school at that age level, maybe stardom in elementary at a, you know, a softer approach and then get larger as we go I really like the platform were using right now to be able to hear other people's ideas and you know be able to give other things of thought will also learning what's going on. I think it would be great, maybe not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>"45:32"</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Not necessarily a full class but you know an extracurricular really trying to get people in here to do things like this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="9">
+      <c r="A68" s="4" t="n">
         <v>10005</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>"46:13"</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>Well, I think it's vital to infuse this, this education to young people and up through the ranks. I think that all people like, I like this format. I think we're living in an age of information where all people could benefit from this type of format because it's just the way the world is going.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="9">
+      <c r="A69" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>"46:38"</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>Does anyone have any suggestions for editing the question before we won?</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="9">
+      <c r="A70" s="4" t="n">
         <v>48423</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>"46:47"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>I'm good like it the way it is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="9">
+      <c r="A71" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>"46:50"</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I'm good with this. I don't think there's any problem at all with this. It's just a question of the mechanics of implementing it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="9">
+      <c r="A72" s="4" t="n">
         <v>10005</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>"47:18"</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="n"/>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="9">
+      <c r="A73" s="4" t="n">
         <v>10005</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>"47:18"</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>So my question, I just didn't know what to write and I've learned a lot from you guys this session, so I really appreciate it. I might take away was a little bit hopeless in writing that I don't know if anything can be done, so that's we can probably move on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="9">
+      <c r="A74" s="4" t="n">
         <v>48389</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
-        <v>9775</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>111</v>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>"47:54"</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>You know, the only thing I would add to this would be to Define what what these areas where I think there's five. But I'm good with the way this thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="9">
+      <c r="A75" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>"48:04"</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>I think.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="9">
+      <c r="A76" s="4" t="n">
+        <v>9775</v>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>"48:04"</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This is a good question, actually. It may be helpful to ask which of these proposals are actually have actually have a chance of being implemented in which, which do the experts think are likely to work or are easiest to implement. Our four are the most</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D609A5-F2E0-1441-BB8A-6C20A9769C25}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230603-a1r-yc-session2-m_transcript.xlsx
+++ b/data/2/20230603-a1r-yc-session2-m_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
